--- a/in-progress/Composto_2019/master_template_2020_Bailey.xlsx
+++ b/in-progress/Composto_2019/master_template_2020_Bailey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Google Drive\UVM post-doc\Curation\Virtual Issue\2019Composto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miked\Documents\GitHub\nmcuration\in-progress\Composto_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3414E0B-B81E-4E5D-AD2F-9DC7C8747DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FEE788-4D0F-4A66-A5CC-E439E691E1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="605" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-7095" windowWidth="16440" windowHeight="28440" tabRatio="605" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="legend" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="631">
   <si>
     <t>data origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2491,13 +2491,7 @@
     <t>kg/mol</t>
   </si>
   <si>
-    <t>octa(aminophenyl) polyhedral oligomeric silsesquioxane</t>
-  </si>
-  <si>
     <t>OAPS</t>
-  </si>
-  <si>
-    <t>nm</t>
   </si>
   <si>
     <t>(P2VP) was received from Polymer Source or Scientific Polymer
@@ -2526,9 +2520,6 @@
   </si>
   <si>
     <t>MeOH</t>
-  </si>
-  <si>
-    <t>several</t>
   </si>
   <si>
     <t>Celsius</t>
@@ -3645,6 +3636,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3687,7 +3679,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4058,13 +4049,13 @@
     <row r="7" spans="1:3">
       <c r="B7" s="169"/>
       <c r="C7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="168"/>
       <c r="C9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -4099,11 +4090,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="61.2" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -4278,11 +4269,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="61.2" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:10" ht="16.2" thickBot="1">
       <c r="A4" s="21" t="s">
@@ -4627,10 +4618,10 @@
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="114" customHeight="1">
-      <c r="A2" s="184" t="s">
+      <c r="A2" s="185" t="s">
         <v>607</v>
       </c>
-      <c r="B2" s="184"/>
+      <c r="B2" s="185"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1"/>
     <row r="4" spans="1:4" ht="15.6">
@@ -5600,11 +5591,11 @@
       <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="15.6">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
@@ -6259,7 +6250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -6280,10 +6271,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="172" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="171"/>
+      <c r="B2" s="172"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.6">
@@ -6321,7 +6312,7 @@
       <c r="A6" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="185"/>
+      <c r="B6" s="171"/>
     </row>
     <row r="7" spans="1:4" ht="15.6">
       <c r="A7" s="45" t="s">
@@ -6583,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6609,11 +6600,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15.6">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="173" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
     </row>
     <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="22" t="s">
@@ -6822,9 +6813,7 @@
       <c r="A28" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>618</v>
-      </c>
+      <c r="B28" s="16"/>
       <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="15.6">
@@ -6838,9 +6827,7 @@
       <c r="A30" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>619</v>
-      </c>
+      <c r="B30" s="16"/>
       <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="15.6">
@@ -6877,12 +6864,8 @@
         <v>535</v>
       </c>
       <c r="B35" s="16"/>
-      <c r="C35" s="16">
-        <v>1.8</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>620</v>
-      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5" ht="15.6">
@@ -7069,16 +7052,16 @@
       <c r="A60" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="F60" s="172" t="s">
+      <c r="F60" s="173" t="s">
         <v>543</v>
       </c>
-      <c r="G60" s="172"/>
-      <c r="H60" s="172"/>
+      <c r="G60" s="173"/>
+      <c r="H60" s="173"/>
     </row>
     <row r="61" spans="1:8" ht="15" thickBot="1">
-      <c r="F61" s="172"/>
-      <c r="G61" s="172"/>
-      <c r="H61" s="172"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="173"/>
+      <c r="H61" s="173"/>
     </row>
     <row r="62" spans="1:8" ht="16.2" thickTop="1">
       <c r="A62" s="114" t="s">
@@ -7093,9 +7076,9 @@
       <c r="D62" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="172"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="172"/>
+      <c r="F62" s="173"/>
+      <c r="G62" s="173"/>
+      <c r="H62" s="173"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="76" t="s">
@@ -7106,9 +7089,9 @@
       <c r="D63" s="73" t="s">
         <v>528</v>
       </c>
-      <c r="F63" s="172"/>
-      <c r="G63" s="172"/>
-      <c r="H63" s="172"/>
+      <c r="F63" s="173"/>
+      <c r="G63" s="173"/>
+      <c r="H63" s="173"/>
     </row>
     <row r="64" spans="1:8" ht="15" thickBot="1">
       <c r="A64" s="76" t="s">
@@ -7119,9 +7102,9 @@
       <c r="D64" s="73" t="s">
         <v>545</v>
       </c>
-      <c r="F64" s="173"/>
-      <c r="G64" s="173"/>
-      <c r="H64" s="173"/>
+      <c r="F64" s="174"/>
+      <c r="G64" s="174"/>
+      <c r="H64" s="174"/>
     </row>
     <row r="65" spans="1:9" ht="21.6" thickBot="1">
       <c r="A65" s="94" t="s">
@@ -8443,7 +8426,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8465,19 +8448,19 @@
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="F1" s="180" t="s">
+      <c r="F1" s="181" t="s">
         <v>488</v>
       </c>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="183"/>
     </row>
     <row r="2" spans="1:9" ht="112.5" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
       <c r="F2" s="63"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
@@ -8488,13 +8471,13 @@
         <v>598</v>
       </c>
       <c r="B3" s="162" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="175" t="s">
         <v>489</v>
       </c>
-      <c r="G3" s="175"/>
+      <c r="G3" s="176"/>
       <c r="H3" s="64"/>
       <c r="I3" s="137"/>
     </row>
@@ -8514,10 +8497,10 @@
         <v>271</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="F5" s="176" t="s">
+      <c r="F5" s="177" t="s">
         <v>538</v>
       </c>
-      <c r="G5" s="177"/>
+      <c r="G5" s="178"/>
       <c r="H5" s="92"/>
       <c r="I5" s="93"/>
     </row>
@@ -8577,7 +8560,7 @@
         <v>279</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C9" s="77"/>
       <c r="D9" s="73"/>
@@ -8596,7 +8579,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D10" s="93"/>
       <c r="F10" s="96"/>
@@ -8647,7 +8630,7 @@
         <v>558</v>
       </c>
       <c r="B13" s="95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C13" s="95"/>
       <c r="D13" s="106"/>
@@ -8728,7 +8711,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="95" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D18" s="93"/>
       <c r="F18" s="96"/>
@@ -8779,7 +8762,7 @@
         <v>558</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C21" s="95"/>
       <c r="D21" s="106"/>
@@ -8888,12 +8871,8 @@
       <c r="A28" s="139" t="s">
         <v>287</v>
       </c>
-      <c r="B28" s="132" t="s">
-        <v>624</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>425</v>
-      </c>
+      <c r="B28" s="132"/>
+      <c r="C28" s="131"/>
       <c r="D28" s="137"/>
       <c r="F28" s="139" t="s">
         <v>288</v>
@@ -9007,7 +8986,7 @@
         <v>279</v>
       </c>
       <c r="B35" s="132" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C35" s="77"/>
       <c r="D35" s="137"/>
@@ -9024,7 +9003,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="95" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D36" s="93"/>
       <c r="F36" s="139" t="s">
@@ -9071,7 +9050,7 @@
         <v>558</v>
       </c>
       <c r="B39" s="95" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C39" s="95"/>
       <c r="D39" s="106"/>
@@ -9290,7 +9269,7 @@
         <v>170</v>
       </c>
       <c r="C53" s="131" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D53" s="137"/>
       <c r="F53" s="139" t="s">
@@ -10454,11 +10433,11 @@
       <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" ht="91.2" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>442</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
@@ -10986,7 +10965,7 @@
         <v>210</v>
       </c>
       <c r="B40" s="132" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C40" s="125"/>
       <c r="D40" s="125"/>
@@ -11000,7 +10979,7 @@
         <v>218</v>
       </c>
       <c r="B41" s="132" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C41" s="125"/>
       <c r="D41" s="125"/>
@@ -11290,7 +11269,7 @@
         <v>210</v>
       </c>
       <c r="B61" s="132" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C61" s="125"/>
       <c r="D61" s="125"/>
@@ -11332,7 +11311,7 @@
         <v>10</v>
       </c>
       <c r="D64" s="132" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E64" s="131"/>
       <c r="F64" s="132"/>
@@ -11898,11 +11877,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="48" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -12699,11 +12678,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="48.75" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -13112,11 +13091,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="51" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -13268,7 +13247,7 @@
       <c r="D18" s="24"/>
       <c r="E18" s="167"/>
       <c r="F18" s="25" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -13395,11 +13374,11 @@
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="61.2" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="21" t="s">
@@ -13448,7 +13427,7 @@
         <v>164</v>
       </c>
       <c r="B9" s="163" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.6">
